--- a/Code/Results/Cases/Case_0_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_152/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.259446039957524</v>
+        <v>0.3730330951964334</v>
       </c>
       <c r="D2">
-        <v>0.05774091196891362</v>
+        <v>0.05352147626508952</v>
       </c>
       <c r="E2">
-        <v>0.07595508275496243</v>
+        <v>0.1452377679225485</v>
       </c>
       <c r="F2">
-        <v>0.5971643802021092</v>
+        <v>1.092644595523851</v>
       </c>
       <c r="G2">
-        <v>0.0008056800235740804</v>
+        <v>0.002476445076018002</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.629172027817333</v>
+        <v>1.381859428878272</v>
       </c>
       <c r="L2">
-        <v>0.04710982393009999</v>
+        <v>0.1191571162513156</v>
       </c>
       <c r="M2">
-        <v>0.822995295020938</v>
+        <v>0.4510115267604888</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.809680770792738</v>
+        <v>3.944378068596023</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2381110592336881</v>
+        <v>0.3701789870464296</v>
       </c>
       <c r="D3">
-        <v>0.05404684608581078</v>
+        <v>0.05225436952495244</v>
       </c>
       <c r="E3">
-        <v>0.07208744907995168</v>
+        <v>0.1454296130764696</v>
       </c>
       <c r="F3">
-        <v>0.5711729131374028</v>
+        <v>1.098632818764848</v>
       </c>
       <c r="G3">
-        <v>0.000810768289362841</v>
+        <v>0.002479741282228816</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.15445785179179</v>
+        <v>1.235177181229631</v>
       </c>
       <c r="L3">
-        <v>0.04690491197857583</v>
+        <v>0.1201268930779555</v>
       </c>
       <c r="M3">
-        <v>0.7166638681888315</v>
+        <v>0.4205483993504231</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.779404445254215</v>
+        <v>3.982756533876795</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2254072536842244</v>
+        <v>0.368628611198659</v>
       </c>
       <c r="D4">
-        <v>0.05178811524527305</v>
+        <v>0.05147728304660149</v>
       </c>
       <c r="E4">
-        <v>0.06985806910396875</v>
+        <v>0.1456259975868974</v>
       </c>
       <c r="F4">
-        <v>0.5570275502488897</v>
+        <v>1.10314123560385</v>
       </c>
       <c r="G4">
-        <v>0.0008139882964108938</v>
+        <v>0.002481872133940989</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.863655917864605</v>
+        <v>1.145028162580076</v>
       </c>
       <c r="L4">
-        <v>0.04688771568060801</v>
+        <v>0.1207842076195753</v>
       </c>
       <c r="M4">
-        <v>0.6517152139566207</v>
+        <v>0.4019360924462916</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.767012452101028</v>
+        <v>4.009237737474677</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2203231730194375</v>
+        <v>0.3680476475435057</v>
       </c>
       <c r="D5">
-        <v>0.05086965559993928</v>
+        <v>0.05116087423604654</v>
       </c>
       <c r="E5">
-        <v>0.06898407125340711</v>
+        <v>0.1457257854120861</v>
       </c>
       <c r="F5">
-        <v>0.5516919895130741</v>
+        <v>1.105187197606966</v>
       </c>
       <c r="G5">
-        <v>0.0008153251554974261</v>
+        <v>0.002482767454025182</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.745268469790318</v>
+        <v>1.108272161893325</v>
       </c>
       <c r="L5">
-        <v>0.04690678166839035</v>
+        <v>0.1210676196808578</v>
       </c>
       <c r="M5">
-        <v>0.6253190156629955</v>
+        <v>0.3943749711991273</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.763434094657867</v>
+        <v>4.020761151099038</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2194843818963221</v>
+        <v>0.367954249350376</v>
       </c>
       <c r="D6">
-        <v>0.05071725586761033</v>
+        <v>0.05110835135542402</v>
       </c>
       <c r="E6">
-        <v>0.06884096986507515</v>
+        <v>0.1457435484563874</v>
       </c>
       <c r="F6">
-        <v>0.5508311545367661</v>
+        <v>1.105539524828259</v>
       </c>
       <c r="G6">
-        <v>0.0008155486473708615</v>
+        <v>0.002482917753091929</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.725615898025467</v>
+        <v>1.102167733948136</v>
       </c>
       <c r="L6">
-        <v>0.04691148744123552</v>
+        <v>0.1211156191070408</v>
       </c>
       <c r="M6">
-        <v>0.6209398268440154</v>
+        <v>0.3931208857357262</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.76292633526964</v>
+        <v>4.02271878423457</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.225338320783095</v>
+        <v>0.3686205702983472</v>
       </c>
       <c r="D7">
-        <v>0.05177572099309202</v>
+        <v>0.05147301475481925</v>
       </c>
       <c r="E7">
-        <v>0.06984614503993924</v>
+        <v>0.1456272633582465</v>
       </c>
       <c r="F7">
-        <v>0.5569538917227206</v>
+        <v>1.10316798345886</v>
       </c>
       <c r="G7">
-        <v>0.000814006225131183</v>
+        <v>0.002481884099103122</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.862058898017494</v>
+        <v>1.144532534808263</v>
       </c>
       <c r="L7">
-        <v>0.04688786882648088</v>
+        <v>0.1207879668558292</v>
       </c>
       <c r="M7">
-        <v>0.6513589568411007</v>
+        <v>0.401834024698374</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.76695834650161</v>
+        <v>4.009390183739526</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2520033674409774</v>
+        <v>0.372007070240727</v>
       </c>
       <c r="D8">
-        <v>0.0564649960190664</v>
+        <v>0.0530844029097679</v>
       </c>
       <c r="E8">
-        <v>0.07459007383162941</v>
+        <v>0.1452876025688106</v>
       </c>
       <c r="F8">
-        <v>0.5878092435986062</v>
+        <v>1.094536505371735</v>
       </c>
       <c r="G8">
-        <v>0.0008074149434415194</v>
+        <v>0.002477559456506259</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.465317425229898</v>
+        <v>1.331302264691033</v>
       </c>
       <c r="L8">
-        <v>0.04701585700686906</v>
+        <v>0.1194786509713133</v>
       </c>
       <c r="M8">
-        <v>0.7862527962297463</v>
+        <v>0.4404889175864355</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.797901181981842</v>
+        <v>3.957004817661613</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3077628792246117</v>
+        <v>0.3802513165961159</v>
       </c>
       <c r="D9">
-        <v>0.06575521014059404</v>
+        <v>0.05625058216645584</v>
       </c>
       <c r="E9">
-        <v>0.08514605248139162</v>
+        <v>0.1452454105256962</v>
       </c>
       <c r="F9">
-        <v>0.6640195323255611</v>
+        <v>1.084226556614475</v>
       </c>
       <c r="G9">
-        <v>0.0007952208743532503</v>
+        <v>0.002469923807815261</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.656298238233148</v>
+        <v>1.696811389795585</v>
       </c>
       <c r="L9">
-        <v>0.04818852969027176</v>
+        <v>0.1174022839818818</v>
       </c>
       <c r="M9">
-        <v>1.054184678743866</v>
+        <v>0.5170105371569562</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.911952576436107</v>
+        <v>3.87748027062662</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.351338112431165</v>
+        <v>0.3872872217110341</v>
       </c>
       <c r="D10">
-        <v>0.07266951901271312</v>
+        <v>0.05857941908564612</v>
       </c>
       <c r="E10">
-        <v>0.09381536768097831</v>
+        <v>0.1455954139532096</v>
       </c>
       <c r="F10">
-        <v>0.7315516750252584</v>
+        <v>1.080711380262343</v>
       </c>
       <c r="G10">
-        <v>0.0007866648714029297</v>
+        <v>0.002464823701482768</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.540257094824653</v>
+        <v>1.964834202696466</v>
       </c>
       <c r="L10">
-        <v>0.04970163713072751</v>
+        <v>0.1161766935747828</v>
       </c>
       <c r="M10">
-        <v>1.254203373531695</v>
+        <v>0.5736598310651573</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.034567473004842</v>
+        <v>3.833284467179254</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3718481903917166</v>
+        <v>0.3907009855795422</v>
       </c>
       <c r="D11">
-        <v>0.07584220887930115</v>
+        <v>0.05963921893481228</v>
       </c>
       <c r="E11">
-        <v>0.09799416417665441</v>
+        <v>0.145837533792605</v>
       </c>
       <c r="F11">
-        <v>0.7652580377314138</v>
+        <v>1.079999420055273</v>
       </c>
       <c r="G11">
-        <v>0.0007828496953024657</v>
+        <v>0.00246261309967064</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.945339693053427</v>
+        <v>2.086641510735603</v>
       </c>
       <c r="L11">
-        <v>0.05055330520691115</v>
+        <v>0.1156843722884915</v>
       </c>
       <c r="M11">
-        <v>1.346153781920947</v>
+        <v>0.5995225822686052</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.100308273669043</v>
+        <v>3.816287374899559</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3797245986551445</v>
+        <v>0.3920243397745651</v>
       </c>
       <c r="D12">
-        <v>0.07704828514066975</v>
+        <v>0.06004057203072222</v>
       </c>
       <c r="E12">
-        <v>0.09961369676525322</v>
+        <v>0.1459411486067559</v>
       </c>
       <c r="F12">
-        <v>0.7784948549139727</v>
+        <v>1.079857823201991</v>
       </c>
       <c r="G12">
-        <v>0.0007814151327079011</v>
+        <v>0.002461791657188709</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.099251072829873</v>
+        <v>2.132748366898113</v>
       </c>
       <c r="L12">
-        <v>0.05090130271420179</v>
+        <v>0.1155073285812414</v>
       </c>
       <c r="M12">
-        <v>1.381135487876605</v>
+        <v>0.6093292024935693</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.12677568479765</v>
+        <v>3.810299420510802</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3780232122305449</v>
+        <v>0.391737969335793</v>
       </c>
       <c r="D13">
-        <v>0.07678831608524916</v>
+        <v>0.05995413256609083</v>
       </c>
       <c r="E13">
-        <v>0.09926319501130365</v>
+        <v>0.1459183026133708</v>
       </c>
       <c r="F13">
-        <v>0.7756222990391421</v>
+        <v>1.079882618445865</v>
       </c>
       <c r="G13">
-        <v>0.0007817236548287923</v>
+        <v>0.002461967874022802</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.066079074838171</v>
+        <v>2.122819304057543</v>
       </c>
       <c r="L13">
-        <v>0.05082518781375711</v>
+        <v>0.1155450404131315</v>
       </c>
       <c r="M13">
-        <v>1.373593938634968</v>
+        <v>0.6072166009517304</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.121003136677558</v>
+        <v>3.811569062428333</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3724939235402758</v>
+        <v>0.390809244773493</v>
       </c>
       <c r="D14">
-        <v>0.07594133597168451</v>
+        <v>0.05967223805326682</v>
       </c>
       <c r="E14">
-        <v>0.09812664030344465</v>
+        <v>0.1458458191179233</v>
       </c>
       <c r="F14">
-        <v>0.7663372964635329</v>
+        <v>1.079985202818762</v>
       </c>
       <c r="G14">
-        <v>0.0007827314747888446</v>
+        <v>0.0024625452054798</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.957991206285726</v>
+        <v>2.090435140320722</v>
       </c>
       <c r="L14">
-        <v>0.05058141223415902</v>
+        <v>0.1156696185886297</v>
       </c>
       <c r="M14">
-        <v>1.349028354770596</v>
+        <v>0.6003291212432913</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.102453394594875</v>
+        <v>3.815785745133724</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3691216965563058</v>
+        <v>0.3902443636655448</v>
       </c>
       <c r="D15">
-        <v>0.07542316404099836</v>
+        <v>0.05949957260665428</v>
       </c>
       <c r="E15">
-        <v>0.09743540410621776</v>
+        <v>0.1458029746732628</v>
       </c>
       <c r="F15">
-        <v>0.7607129162911548</v>
+        <v>1.080064722095685</v>
       </c>
       <c r="G15">
-        <v>0.0007833500888103516</v>
+        <v>0.002462900875603577</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.891854167662302</v>
+        <v>2.07059638069444</v>
       </c>
       <c r="L15">
-        <v>0.05043547451181141</v>
+        <v>0.1157471492045303</v>
       </c>
       <c r="M15">
-        <v>1.334003080167975</v>
+        <v>0.5961120175402357</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.091300340552806</v>
+        <v>3.818427036624826</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3500124688581536</v>
+        <v>0.3870684116319865</v>
       </c>
       <c r="D16">
-        <v>0.07246278583307486</v>
+        <v>0.05851016435007494</v>
       </c>
       <c r="E16">
-        <v>0.09354728025022041</v>
+        <v>0.1455812597364563</v>
       </c>
       <c r="F16">
-        <v>0.7294126062777764</v>
+        <v>1.080775797236953</v>
       </c>
       <c r="G16">
-        <v>0.0007869156753320911</v>
+        <v>0.002464970365849731</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.51385108397551</v>
+        <v>1.956871269029477</v>
       </c>
       <c r="L16">
-        <v>0.04964943257680687</v>
+        <v>0.1162101809890359</v>
       </c>
       <c r="M16">
-        <v>1.248215528087002</v>
+        <v>0.5719714728700183</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.030483333829409</v>
+        <v>3.83445793888373</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3384730711100588</v>
+        <v>0.385174641660285</v>
       </c>
       <c r="D17">
-        <v>0.07065417684265185</v>
+        <v>0.05790327708790954</v>
       </c>
       <c r="E17">
-        <v>0.09122451712093849</v>
+        <v>0.145466483629427</v>
       </c>
       <c r="F17">
-        <v>0.7110054338146483</v>
+        <v>1.081439543608951</v>
       </c>
       <c r="G17">
-        <v>0.0007891221426390742</v>
+        <v>0.002466267912518122</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.28277867895099</v>
+        <v>1.887073029684245</v>
       </c>
       <c r="L17">
-        <v>0.04921042713010593</v>
+        <v>0.1165109446929158</v>
       </c>
       <c r="M17">
-        <v>1.195850087401183</v>
+        <v>0.5571855070531484</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.995821653679883</v>
+        <v>3.845089482981592</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3318999226644621</v>
+        <v>0.3841054531893064</v>
       </c>
       <c r="D18">
-        <v>0.0696164384352187</v>
+        <v>0.05755425087777866</v>
       </c>
       <c r="E18">
-        <v>0.08991043778503993</v>
+        <v>0.1454082700376311</v>
       </c>
       <c r="F18">
-        <v>0.7006963125932089</v>
+        <v>1.081904785701681</v>
       </c>
       <c r="G18">
-        <v>0.0007903985499457823</v>
+        <v>0.002467024534806517</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.15014525123263</v>
+        <v>1.846915976717128</v>
       </c>
       <c r="L18">
-        <v>0.04897316817583075</v>
+        <v>0.1166900728382956</v>
       </c>
       <c r="M18">
-        <v>1.165819760081064</v>
+        <v>0.5486897582130865</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.976813813519129</v>
+        <v>3.851496892474216</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3296850461523206</v>
+        <v>0.3837468895314657</v>
       </c>
       <c r="D19">
-        <v>0.06926549124136727</v>
+        <v>0.05743608420070956</v>
       </c>
       <c r="E19">
-        <v>0.08946918042423846</v>
+        <v>0.1453898997717893</v>
       </c>
       <c r="F19">
-        <v>0.6972523340651122</v>
+        <v>1.082076631745139</v>
       </c>
       <c r="G19">
-        <v>0.0007908320007837207</v>
+        <v>0.002467282486728001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.105282213409168</v>
+        <v>1.833317669477594</v>
       </c>
       <c r="L19">
-        <v>0.04889539666722698</v>
+        <v>0.1167517762177113</v>
       </c>
       <c r="M19">
-        <v>1.155666580656813</v>
+        <v>0.5458147574989027</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.970533508256125</v>
+        <v>3.853716507722368</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3396947596655195</v>
+        <v>0.3853741608384951</v>
       </c>
       <c r="D20">
-        <v>0.0708464400178741</v>
+        <v>0.05796787740819553</v>
       </c>
       <c r="E20">
-        <v>0.09146948829826584</v>
+        <v>0.1454778941447294</v>
       </c>
       <c r="F20">
-        <v>0.7129358124562941</v>
+        <v>1.081360244355679</v>
       </c>
       <c r="G20">
-        <v>0.000788886510700073</v>
+        <v>0.002466128720299096</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.307347826036448</v>
+        <v>1.894504319580506</v>
       </c>
       <c r="L20">
-        <v>0.04925556824217381</v>
+        <v>0.1164782926650858</v>
       </c>
       <c r="M20">
-        <v>1.201415111995217</v>
+        <v>0.5587585957297989</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.999414361658069</v>
+        <v>3.84392746047007</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3741149417695908</v>
+        <v>0.3910812022942025</v>
       </c>
       <c r="D21">
-        <v>0.07618998232895535</v>
+        <v>0.0597550367109676</v>
       </c>
       <c r="E21">
-        <v>0.09845943891335196</v>
+        <v>0.1458667854544977</v>
       </c>
       <c r="F21">
-        <v>0.7690513243143329</v>
+        <v>1.07995159371184</v>
       </c>
       <c r="G21">
-        <v>0.0007824351854990132</v>
+        <v>0.002462375204761381</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.9897244951988</v>
+        <v>2.099947683822791</v>
       </c>
       <c r="L21">
-        <v>0.05065230643036855</v>
+        <v>0.1156327720905175</v>
       </c>
       <c r="M21">
-        <v>1.356239261894387</v>
+        <v>0.6023517922676263</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.107858038618531</v>
+        <v>3.814535019136201</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3972555878988544</v>
+        <v>0.3949896504460639</v>
       </c>
       <c r="D22">
-        <v>0.07970977577760152</v>
+        <v>0.06092321042434179</v>
       </c>
       <c r="E22">
-        <v>0.1032458505477649</v>
+        <v>0.1461904852894804</v>
       </c>
       <c r="F22">
-        <v>0.8085058609670739</v>
+        <v>1.079777286496565</v>
       </c>
       <c r="G22">
-        <v>0.0007782776238443356</v>
+        <v>0.002460013334978649</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.438748625176174</v>
+        <v>2.234105558452256</v>
       </c>
       <c r="L22">
-        <v>0.05171478725022283</v>
+        <v>0.1151348993452288</v>
       </c>
       <c r="M22">
-        <v>1.458383252227065</v>
+        <v>0.6309178240289413</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.187974073449624</v>
+        <v>3.797940150763054</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3848421350002695</v>
+        <v>0.3928873014117755</v>
       </c>
       <c r="D23">
-        <v>0.07782842367328158</v>
+        <v>0.06029972832152453</v>
       </c>
       <c r="E23">
-        <v>0.1006701276993169</v>
+        <v>0.1460113552393416</v>
       </c>
       <c r="F23">
-        <v>0.7871784410507132</v>
+        <v>1.0798018827997</v>
       </c>
       <c r="G23">
-        <v>0.0007804915376279992</v>
+        <v>0.00246126558309029</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.19878516592172</v>
+        <v>2.162513812573479</v>
       </c>
       <c r="L23">
-        <v>0.05113332143783822</v>
+        <v>0.1153956124548294</v>
       </c>
       <c r="M23">
-        <v>1.403770989774529</v>
+        <v>0.6156648218530449</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.144319345018801</v>
+        <v>3.806557369467384</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3391422450592074</v>
+        <v>0.3852838972748884</v>
       </c>
       <c r="D24">
-        <v>0.07075951148897275</v>
+        <v>0.05793867197044023</v>
       </c>
       <c r="E24">
-        <v>0.09135867070550674</v>
+        <v>0.1454727112402381</v>
       </c>
       <c r="F24">
-        <v>0.7120622399201295</v>
+        <v>1.081395835025759</v>
       </c>
       <c r="G24">
-        <v>0.0007889930153049168</v>
+        <v>0.00246619161596445</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.296239457268371</v>
+        <v>1.891144723965454</v>
       </c>
       <c r="L24">
-        <v>0.04923511296448169</v>
+        <v>0.1164930352880305</v>
       </c>
       <c r="M24">
-        <v>1.198898931731833</v>
+        <v>0.5580473870504079</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.997787244411228</v>
+        <v>3.844451891433096</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2922583683790663</v>
+        <v>0.3778492367114268</v>
       </c>
       <c r="D25">
-        <v>0.06322882129632035</v>
+        <v>0.05539350017381395</v>
       </c>
       <c r="E25">
-        <v>0.08214145094511949</v>
+        <v>0.1451899653148132</v>
       </c>
       <c r="F25">
-        <v>0.641527585945262</v>
+        <v>1.086304651207875</v>
       </c>
       <c r="G25">
-        <v>0.0007984456382829653</v>
+        <v>0.002471899544677744</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.332851240691411</v>
+        <v>1.598017860428683</v>
       </c>
       <c r="L25">
-        <v>0.04776378743732934</v>
+        <v>0.1179113620787859</v>
       </c>
       <c r="M25">
-        <v>0.9812300620148662</v>
+        <v>0.4962334152465218</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.874765831957944</v>
+        <v>3.896500867521837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_152/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3730330951964334</v>
+        <v>0.2594460399574245</v>
       </c>
       <c r="D2">
-        <v>0.05352147626508952</v>
+        <v>0.05774091196867914</v>
       </c>
       <c r="E2">
-        <v>0.1452377679225485</v>
+        <v>0.07595508275495888</v>
       </c>
       <c r="F2">
-        <v>1.092644595523851</v>
+        <v>0.5971643802021092</v>
       </c>
       <c r="G2">
-        <v>0.002476445076018002</v>
+        <v>0.0008056800236214673</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.381859428878272</v>
+        <v>3.629172027817276</v>
       </c>
       <c r="L2">
-        <v>0.1191571162513156</v>
+        <v>0.04710982393019592</v>
       </c>
       <c r="M2">
-        <v>0.4510115267604888</v>
+        <v>0.8229952950209238</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.944378068596023</v>
+        <v>1.809680770792681</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3701789870464296</v>
+        <v>0.2381110592336739</v>
       </c>
       <c r="D3">
-        <v>0.05225436952495244</v>
+        <v>0.0540468460859671</v>
       </c>
       <c r="E3">
-        <v>0.1454296130764696</v>
+        <v>0.07208744907994813</v>
       </c>
       <c r="F3">
-        <v>1.098632818764848</v>
+        <v>0.5711729131373886</v>
       </c>
       <c r="G3">
-        <v>0.002479741282228816</v>
+        <v>0.0008107682893255724</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.235177181229631</v>
+        <v>3.154457851791676</v>
       </c>
       <c r="L3">
-        <v>0.1201268930779555</v>
+        <v>0.04690491197862912</v>
       </c>
       <c r="M3">
-        <v>0.4205483993504231</v>
+        <v>0.7166638681888458</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.982756533876795</v>
+        <v>1.779404445254158</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.368628611198659</v>
+        <v>0.2254072536845655</v>
       </c>
       <c r="D4">
-        <v>0.05147728304660149</v>
+        <v>0.05178811524545779</v>
       </c>
       <c r="E4">
-        <v>0.1456259975868974</v>
+        <v>0.0698580691039723</v>
       </c>
       <c r="F4">
-        <v>1.10314123560385</v>
+        <v>0.5570275502488897</v>
       </c>
       <c r="G4">
-        <v>0.002481872133940989</v>
+        <v>0.0008139882964483278</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.145028162580076</v>
+        <v>2.863655917864605</v>
       </c>
       <c r="L4">
-        <v>0.1207842076195753</v>
+        <v>0.04688771568060091</v>
       </c>
       <c r="M4">
-        <v>0.4019360924462916</v>
+        <v>0.6517152139566207</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.009237737474677</v>
+        <v>1.767012452101</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3680476475435057</v>
+        <v>0.2203231730194375</v>
       </c>
       <c r="D5">
-        <v>0.05116087423604654</v>
+        <v>0.0508696555998327</v>
       </c>
       <c r="E5">
-        <v>0.1457257854120861</v>
+        <v>0.06898407125340711</v>
       </c>
       <c r="F5">
-        <v>1.105187197606966</v>
+        <v>0.5516919895130599</v>
       </c>
       <c r="G5">
-        <v>0.002482767454025182</v>
+        <v>0.0008153251555574777</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.108272161893325</v>
+        <v>2.745268469790233</v>
       </c>
       <c r="L5">
-        <v>0.1210676196808578</v>
+        <v>0.04690678166837259</v>
       </c>
       <c r="M5">
-        <v>0.3943749711991273</v>
+        <v>0.6253190156630026</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.020761151099038</v>
+        <v>1.763434094657782</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.367954249350376</v>
+        <v>0.2194843818963363</v>
       </c>
       <c r="D6">
-        <v>0.05110835135542402</v>
+        <v>0.05071725586778086</v>
       </c>
       <c r="E6">
-        <v>0.1457435484563874</v>
+        <v>0.06884096986506805</v>
       </c>
       <c r="F6">
-        <v>1.105539524828259</v>
+        <v>0.5508311545367519</v>
       </c>
       <c r="G6">
-        <v>0.002482917753091929</v>
+        <v>0.0008155486473717264</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.102167733948136</v>
+        <v>2.725615898025524</v>
       </c>
       <c r="L6">
-        <v>0.1211156191070408</v>
+        <v>0.04691148744124973</v>
       </c>
       <c r="M6">
-        <v>0.3931208857357262</v>
+        <v>0.6209398268440154</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.02271878423457</v>
+        <v>1.762926335269611</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3686205702983472</v>
+        <v>0.2253383207828676</v>
       </c>
       <c r="D7">
-        <v>0.05147301475481925</v>
+        <v>0.0517757209931986</v>
       </c>
       <c r="E7">
-        <v>0.1456272633582465</v>
+        <v>0.06984614503992503</v>
       </c>
       <c r="F7">
-        <v>1.10316798345886</v>
+        <v>0.5569538917227206</v>
       </c>
       <c r="G7">
-        <v>0.002481884099103122</v>
+        <v>0.0008140062250498652</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.144532534808263</v>
+        <v>2.862058898017494</v>
       </c>
       <c r="L7">
-        <v>0.1207879668558292</v>
+        <v>0.04688786882651641</v>
       </c>
       <c r="M7">
-        <v>0.401834024698374</v>
+        <v>0.6513589568411007</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.009390183739526</v>
+        <v>1.766958346501639</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.372007070240727</v>
+        <v>0.2520033674407642</v>
       </c>
       <c r="D8">
-        <v>0.0530844029097679</v>
+        <v>0.05646499601923693</v>
       </c>
       <c r="E8">
-        <v>0.1452876025688106</v>
+        <v>0.07459007383162941</v>
       </c>
       <c r="F8">
-        <v>1.094536505371735</v>
+        <v>0.5878092435986062</v>
       </c>
       <c r="G8">
-        <v>0.002477559456506259</v>
+        <v>0.0008074149434190159</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.331302264691033</v>
+        <v>3.465317425229898</v>
       </c>
       <c r="L8">
-        <v>0.1194786509713133</v>
+        <v>0.04701585700695432</v>
       </c>
       <c r="M8">
-        <v>0.4404889175864355</v>
+        <v>0.7862527962297534</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.957004817661613</v>
+        <v>1.797901181981814</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3802513165961159</v>
+        <v>0.3077628792249527</v>
       </c>
       <c r="D9">
-        <v>0.05625058216645584</v>
+        <v>0.06575521014043062</v>
       </c>
       <c r="E9">
-        <v>0.1452454105256962</v>
+        <v>0.08514605248137386</v>
       </c>
       <c r="F9">
-        <v>1.084226556614475</v>
+        <v>0.6640195323255611</v>
       </c>
       <c r="G9">
-        <v>0.002469923807815261</v>
+        <v>0.0007952208743788774</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.696811389795585</v>
+        <v>4.656298238233148</v>
       </c>
       <c r="L9">
-        <v>0.1174022839818818</v>
+        <v>0.04818852969021492</v>
       </c>
       <c r="M9">
-        <v>0.5170105371569562</v>
+        <v>1.054184678743873</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.87748027062662</v>
+        <v>1.91195257643605</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3872872217110341</v>
+        <v>0.351338112431165</v>
       </c>
       <c r="D10">
-        <v>0.05857941908564612</v>
+        <v>0.07266951901260654</v>
       </c>
       <c r="E10">
-        <v>0.1455954139532096</v>
+        <v>0.09381536768097476</v>
       </c>
       <c r="F10">
-        <v>1.080711380262343</v>
+        <v>0.7315516750252726</v>
       </c>
       <c r="G10">
-        <v>0.002464823701482768</v>
+        <v>0.0007866648713743435</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.964834202696466</v>
+        <v>5.54025709482471</v>
       </c>
       <c r="L10">
-        <v>0.1161766935747828</v>
+        <v>0.04970163713072751</v>
       </c>
       <c r="M10">
-        <v>0.5736598310651573</v>
+        <v>1.254203373531681</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.833284467179254</v>
+        <v>2.034567473004785</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3907009855795422</v>
+        <v>0.3718481903916881</v>
       </c>
       <c r="D11">
-        <v>0.05963921893481228</v>
+        <v>0.07584220887928694</v>
       </c>
       <c r="E11">
-        <v>0.145837533792605</v>
+        <v>0.09799416417666507</v>
       </c>
       <c r="F11">
-        <v>1.079999420055273</v>
+        <v>0.7652580377314138</v>
       </c>
       <c r="G11">
-        <v>0.00246261309967064</v>
+        <v>0.0007828496953296579</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.086641510735603</v>
+        <v>5.945339693053427</v>
       </c>
       <c r="L11">
-        <v>0.1156843722884915</v>
+        <v>0.05055330520691825</v>
       </c>
       <c r="M11">
-        <v>0.5995225822686052</v>
+        <v>1.346153781920961</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.816287374899559</v>
+        <v>2.100308273669015</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3920243397745651</v>
+        <v>0.3797245986552866</v>
       </c>
       <c r="D12">
-        <v>0.06004057203072222</v>
+        <v>0.07704828514072659</v>
       </c>
       <c r="E12">
-        <v>0.1459411486067559</v>
+        <v>0.09961369676525322</v>
       </c>
       <c r="F12">
-        <v>1.079857823201991</v>
+        <v>0.7784948549139727</v>
       </c>
       <c r="G12">
-        <v>0.002461791657188709</v>
+        <v>0.0007814151327363353</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.132748366898113</v>
+        <v>6.099251072829816</v>
       </c>
       <c r="L12">
-        <v>0.1155073285812414</v>
+        <v>0.05090130271413429</v>
       </c>
       <c r="M12">
-        <v>0.6093292024935693</v>
+        <v>1.38113548787662</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.810299420510802</v>
+        <v>2.126775684797735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.391737969335793</v>
+        <v>0.3780232122304881</v>
       </c>
       <c r="D13">
-        <v>0.05995413256609083</v>
+        <v>0.07678831608537706</v>
       </c>
       <c r="E13">
-        <v>0.1459183026133708</v>
+        <v>0.09926319501129299</v>
       </c>
       <c r="F13">
-        <v>1.079882618445865</v>
+        <v>0.7756222990390995</v>
       </c>
       <c r="G13">
-        <v>0.002461967874022802</v>
+        <v>0.0007817236548294227</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.122819304057543</v>
+        <v>6.066079074838171</v>
       </c>
       <c r="L13">
-        <v>0.1155450404131315</v>
+        <v>0.05082518781378198</v>
       </c>
       <c r="M13">
-        <v>0.6072166009517304</v>
+        <v>1.373593938634954</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.811569062428333</v>
+        <v>2.121003136677473</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.390809244773493</v>
+        <v>0.3724939235400768</v>
       </c>
       <c r="D14">
-        <v>0.05967223805326682</v>
+        <v>0.07594133597179109</v>
       </c>
       <c r="E14">
-        <v>0.1458458191179233</v>
+        <v>0.09812664030344465</v>
       </c>
       <c r="F14">
-        <v>1.079985202818762</v>
+        <v>0.7663372964635329</v>
       </c>
       <c r="G14">
-        <v>0.0024625452054798</v>
+        <v>0.0007827314748458035</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.090435140320722</v>
+        <v>5.957991206285669</v>
       </c>
       <c r="L14">
-        <v>0.1156696185886297</v>
+        <v>0.05058141223410928</v>
       </c>
       <c r="M14">
-        <v>0.6003291212432913</v>
+        <v>1.34902835477061</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.815785745133724</v>
+        <v>2.102453394594818</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3902443636655448</v>
+        <v>0.3691216965564763</v>
       </c>
       <c r="D15">
-        <v>0.05949957260665428</v>
+        <v>0.07542316404101257</v>
       </c>
       <c r="E15">
-        <v>0.1458029746732628</v>
+        <v>0.09743540410624263</v>
       </c>
       <c r="F15">
-        <v>1.080064722095685</v>
+        <v>0.7607129162911264</v>
       </c>
       <c r="G15">
-        <v>0.002462900875603577</v>
+        <v>0.0007833500887544513</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.07059638069444</v>
+        <v>5.891854167662189</v>
       </c>
       <c r="L15">
-        <v>0.1157471492045303</v>
+        <v>0.05043547451182562</v>
       </c>
       <c r="M15">
-        <v>0.5961120175402357</v>
+        <v>1.334003080167946</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.818427036624826</v>
+        <v>2.091300340552777</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3870684116319865</v>
+        <v>0.3500124688582673</v>
       </c>
       <c r="D16">
-        <v>0.05851016435007494</v>
+        <v>0.07246278583318144</v>
       </c>
       <c r="E16">
-        <v>0.1455812597364563</v>
+        <v>0.09354728025021686</v>
       </c>
       <c r="F16">
-        <v>1.080775797236953</v>
+        <v>0.7294126062777906</v>
       </c>
       <c r="G16">
-        <v>0.002464970365849731</v>
+        <v>0.0007869156753034047</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.956871269029477</v>
+        <v>5.51385108397551</v>
       </c>
       <c r="L16">
-        <v>0.1162101809890359</v>
+        <v>0.04964943257678556</v>
       </c>
       <c r="M16">
-        <v>0.5719714728700183</v>
+        <v>1.248215528086988</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.83445793888373</v>
+        <v>2.03048333382938</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.385174641660285</v>
+        <v>0.3384730711099451</v>
       </c>
       <c r="D17">
-        <v>0.05790327708790954</v>
+        <v>0.07065417684300002</v>
       </c>
       <c r="E17">
-        <v>0.145466483629427</v>
+        <v>0.09122451712093493</v>
       </c>
       <c r="F17">
-        <v>1.081439543608951</v>
+        <v>0.7110054338146625</v>
       </c>
       <c r="G17">
-        <v>0.002466267912518122</v>
+        <v>0.0007891221426974652</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.887073029684245</v>
+        <v>5.282778678950933</v>
       </c>
       <c r="L17">
-        <v>0.1165109446929158</v>
+        <v>0.04921042713012014</v>
       </c>
       <c r="M17">
-        <v>0.5571855070531484</v>
+        <v>1.195850087401183</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.845089482981592</v>
+        <v>1.995821653679855</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3841054531893064</v>
+        <v>0.3318999226643484</v>
       </c>
       <c r="D18">
-        <v>0.05755425087777866</v>
+        <v>0.06961643843527554</v>
       </c>
       <c r="E18">
-        <v>0.1454082700376311</v>
+        <v>0.08991043778500796</v>
       </c>
       <c r="F18">
-        <v>1.081904785701681</v>
+        <v>0.7006963125932089</v>
       </c>
       <c r="G18">
-        <v>0.002467024534806517</v>
+        <v>0.0007903985499456196</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.846915976717128</v>
+        <v>5.15014525123263</v>
       </c>
       <c r="L18">
-        <v>0.1166900728382956</v>
+        <v>0.04897316817577746</v>
       </c>
       <c r="M18">
-        <v>0.5486897582130865</v>
+        <v>1.16581976008105</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.851496892474216</v>
+        <v>1.976813813519101</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3837468895314657</v>
+        <v>0.3296850461525764</v>
       </c>
       <c r="D19">
-        <v>0.05743608420070956</v>
+        <v>0.06926549124142412</v>
       </c>
       <c r="E19">
-        <v>0.1453898997717893</v>
+        <v>0.08946918042423846</v>
       </c>
       <c r="F19">
-        <v>1.082076631745139</v>
+        <v>0.6972523340651122</v>
       </c>
       <c r="G19">
-        <v>0.002467282486728001</v>
+        <v>0.0007908320007854001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.833317669477594</v>
+        <v>5.105282213409225</v>
       </c>
       <c r="L19">
-        <v>0.1167517762177113</v>
+        <v>0.04889539666720566</v>
       </c>
       <c r="M19">
-        <v>0.5458147574989027</v>
+        <v>1.155666580656799</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.853716507722368</v>
+        <v>1.970533508256125</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3853741608384951</v>
+        <v>0.3396947596654911</v>
       </c>
       <c r="D20">
-        <v>0.05796787740819553</v>
+        <v>0.07084644001795226</v>
       </c>
       <c r="E20">
-        <v>0.1454778941447294</v>
+        <v>0.09146948829824808</v>
       </c>
       <c r="F20">
-        <v>1.081360244355679</v>
+        <v>0.7129358124562941</v>
       </c>
       <c r="G20">
-        <v>0.002466128720299096</v>
+        <v>0.0007888865106727174</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.894504319580506</v>
+        <v>5.307347826036562</v>
       </c>
       <c r="L20">
-        <v>0.1164782926650858</v>
+        <v>0.04925556824221644</v>
       </c>
       <c r="M20">
-        <v>0.5587585957297989</v>
+        <v>1.201415111995203</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.84392746047007</v>
+        <v>1.999414361658097</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3910812022942025</v>
+        <v>0.3741149417695908</v>
       </c>
       <c r="D21">
-        <v>0.0597550367109676</v>
+        <v>0.0761899823290122</v>
       </c>
       <c r="E21">
-        <v>0.1458667854544977</v>
+        <v>0.09845943891335551</v>
       </c>
       <c r="F21">
-        <v>1.07995159371184</v>
+        <v>0.7690513243143471</v>
       </c>
       <c r="G21">
-        <v>0.002462375204761381</v>
+        <v>0.000782435185557262</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.099947683822791</v>
+        <v>5.9897244951988</v>
       </c>
       <c r="L21">
-        <v>0.1156327720905175</v>
+        <v>0.050652306430365</v>
       </c>
       <c r="M21">
-        <v>0.6023517922676263</v>
+        <v>1.356239261894373</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.814535019136201</v>
+        <v>2.107858038618502</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3949896504460639</v>
+        <v>0.3972555878989681</v>
       </c>
       <c r="D22">
-        <v>0.06092321042434179</v>
+        <v>0.07970977577751626</v>
       </c>
       <c r="E22">
-        <v>0.1461904852894804</v>
+        <v>0.1032458505478004</v>
       </c>
       <c r="F22">
-        <v>1.079777286496565</v>
+        <v>0.8085058609670881</v>
       </c>
       <c r="G22">
-        <v>0.002460013334978649</v>
+        <v>0.0007782776238436397</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.234105558452256</v>
+        <v>6.438748625176345</v>
       </c>
       <c r="L22">
-        <v>0.1151348993452288</v>
+        <v>0.05171478725027256</v>
       </c>
       <c r="M22">
-        <v>0.6309178240289413</v>
+        <v>1.45838325222708</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.797940150763054</v>
+        <v>2.187974073449709</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3928873014117755</v>
+        <v>0.384842135000298</v>
       </c>
       <c r="D23">
-        <v>0.06029972832152453</v>
+        <v>0.0778284236731821</v>
       </c>
       <c r="E23">
-        <v>0.1460113552393416</v>
+        <v>0.1006701276992992</v>
       </c>
       <c r="F23">
-        <v>1.0798018827997</v>
+        <v>0.7871784410507132</v>
       </c>
       <c r="G23">
-        <v>0.00246126558309029</v>
+        <v>0.0007804915376004898</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.162513812573479</v>
+        <v>6.198785165921606</v>
       </c>
       <c r="L23">
-        <v>0.1153956124548294</v>
+        <v>0.05113332143784532</v>
       </c>
       <c r="M23">
-        <v>0.6156648218530449</v>
+        <v>1.403770989774557</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.806557369467384</v>
+        <v>2.14431934501863</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3852838972748884</v>
+        <v>0.3391422450594348</v>
       </c>
       <c r="D24">
-        <v>0.05793867197044023</v>
+        <v>0.07075951148873827</v>
       </c>
       <c r="E24">
-        <v>0.1454727112402381</v>
+        <v>0.09135867070553516</v>
       </c>
       <c r="F24">
-        <v>1.081395835025759</v>
+        <v>0.7120622399201295</v>
       </c>
       <c r="G24">
-        <v>0.00246619161596445</v>
+        <v>0.0007889930153595064</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.891144723965454</v>
+        <v>5.296239457268427</v>
       </c>
       <c r="L24">
-        <v>0.1164930352880305</v>
+        <v>0.04923511296435379</v>
       </c>
       <c r="M24">
-        <v>0.5580473870504079</v>
+        <v>1.198898931731819</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.844451891433096</v>
+        <v>1.997787244411228</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3778492367114268</v>
+        <v>0.2922583683790663</v>
       </c>
       <c r="D25">
-        <v>0.05539350017381395</v>
+        <v>0.06322882129632745</v>
       </c>
       <c r="E25">
-        <v>0.1451899653148132</v>
+        <v>0.08214145094509462</v>
       </c>
       <c r="F25">
-        <v>1.086304651207875</v>
+        <v>0.641527585945262</v>
       </c>
       <c r="G25">
-        <v>0.002471899544677744</v>
+        <v>0.0007984456383127455</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.598017860428683</v>
+        <v>4.332851240691298</v>
       </c>
       <c r="L25">
-        <v>0.1179113620787859</v>
+        <v>0.04776378743728316</v>
       </c>
       <c r="M25">
-        <v>0.4962334152465218</v>
+        <v>0.9812300620148662</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.896500867521837</v>
+        <v>1.874765831957859</v>
       </c>
     </row>
   </sheetData>
